--- a/application/plugins/StockBuyManager/views/StockBuyExport.xlsx
+++ b/application/plugins/StockBuyManager/views/StockBuyExport.xlsx
@@ -58,91 +58,91 @@
     <t>кг</t>
   </si>
   <si>
-    <t>Товары поставщиков</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supplier_name}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_code}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_name}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_self}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_buy}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_sell}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_comment}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;product_code}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_modified}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_spack}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_bpack}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_volume}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_weight}</t>
-  </si>
-  <si>
-    <t>{$rows[]-&gt;supply_unit}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supplier_name}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_code}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_name}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_buy}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_self}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_sell}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_comment}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;product_code}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_modified}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_spack}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_bpack}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_volume}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_weight}</t>
-  </si>
-  <si>
-    <t>{$filter-&gt;supply_unit}</t>
+    <t>{$v-&gt;filter-&gt;supplier_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_code}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_buy}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_self}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_sell}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_comment}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;product_code}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_modified}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_spack}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_bpack}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_volume}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_weight}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_unit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supplier_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_code}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_buy}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_self}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_sell}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_comment}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_code}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_modified}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_spack}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_bpack}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_volume}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_weight}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_unit}</t>
+  </si>
+  <si>
+    <t>Товары поставщиков {$v-&gt;date}</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -380,8 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,7 +399,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -705,7 +721,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,153 +736,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>28</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/application/plugins/StockBuyManager/views/StockBuyExport.xlsx
+++ b/application/plugins/StockBuyManager/views/StockBuyExport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\iSell\www\isell\application\plugins\StockBuyManager\views\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="1596" yWindow="120" windowWidth="27792" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="товары" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Поставщик</t>
   </si>
@@ -118,9 +123,6 @@
     <t>{$v-&gt;rows[]-&gt;supply_sell}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;supply_comment}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;product_code}</t>
   </si>
   <si>
@@ -143,6 +145,15 @@
   </si>
   <si>
     <t>Товары поставщиков {$v-&gt;date}</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>{$v-&gt;filter-&gt;supply_leftover}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;supply_leftover}</t>
   </si>
 </sst>
 </file>
@@ -372,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -381,6 +392,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,31 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -426,6 +440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,86 +735,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="L4:M4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -808,84 +829,90 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="N4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="O4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -899,11 +926,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
